--- a/F_dataset/DUD-E/MET/MET_preprocessing/MET_g1.xlsx
+++ b/F_dataset/DUD-E/MET/MET_preprocessing/MET_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBDF0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBD80&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBAE0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB530&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB4C0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB450&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB3E0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB370&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB300&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A7F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB290&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB220&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A40B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB1B0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB140&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A42E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB0D0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB060&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAF80&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAF10&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A47B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAEA0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAE30&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCADC0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAD50&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCACE0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A49E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAC70&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAC00&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAB20&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAAB0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAA40&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA960&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA8F0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA880&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA810&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A4F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA7A0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA730&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA6C0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA650&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA5E0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A51C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA570&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA500&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A53F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA490&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA420&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A54D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA3B0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA340&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A55B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA2D0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA1F0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA180&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA110&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A57E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA0A0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A5850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA030&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A58C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9FC0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000282441A59A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9F50&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/MET/MET_preprocessing/MET_g1.xlsx
+++ b/F_dataset/DUD-E/MET/MET_preprocessing/MET_g1.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL460472</t>
+          <t>CHEMBL1099174</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(CC(C)(C)O)n(-c5ccccc5)c4=O)nc3)ccnc2c1</t>
+          <t>Cc1ccccc1NC(=O)c1cccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(CC(C)(C)O)n(-c5ccccc5)c4=O)nc3)ccnc2c1</t>
+          <t>Cc1ccccc1NC(=O)c1cccnc1Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>539.59</v>
+        <v>453.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>120.5</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBF40&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL515858</t>
+          <t>CHEMBL601719</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2c(Oc3ccc(NC(=O)c4cccn(-c5ccc(F)cc5)c4=O)cc3F)ccnc2N)CC1</t>
+          <t>C[C@H](Oc1cc(-c2cnn(C3CCNCC3)c2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2c(Oc3ccc(NC(=O)c4cccn(-c5ccc(F)cc5)c4=O)cc3F)ccnc2N)CC1</t>
+          <t>C[C@H](Oc1cc(-c2cnn(C3CCNCC3)c2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>546.58</v>
+        <v>450.35</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>105.72</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBED0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCBAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBDF0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL261641</t>
+          <t>CHEMBL602472</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(S(=O)(=O)N(C)c4cccc(Cl)c4)cc32)c(C)c1C(=O)N1CCN(C)CC1</t>
+          <t>C[C@H](Oc1ccc2ncc(C3CC3C(N)=O)cc2c1)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(S(=O)(=O)N(C)c4cccc(Cl)c4)cc32)c(C)c1C(=O)N1CCN(C)CC1</t>
+          <t>C[C@H](Oc1ccc2ncc(C3CC3C(N)=O)cc2c1)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>568.1</v>
+        <v>419.28</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>105.82</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBD80&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL598911</t>
+          <t>CHEMBL564904</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CC(Oc1ccc2ncc(/C=C/C(N)=O)cc2c1)c1c(Cl)ccc(F)c1Cl</t>
+          <t>O=C(c1cccnc1)N1CCN(c2cnc3ccn(S(=O)(=O)c4cccc5nonc45)c3c2)CC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CC(Oc1ccc2ncc(/C=C/C(N)=O)cc2c1)c1c(Cl)ccc(F)c1Cl</t>
+          <t>O=C(c1cccnc1)N1CCN(c2cnc3ccn(S(=O)(=O)c4cccc5nonc45)c3c2)CC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>405.26</v>
+        <v>489.52</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>65.20999999999999</v>
+        <v>127.32</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBD10&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL1096519</t>
+          <t>CHEMBL254760</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nc1cc(Oc2ccc(Nc3nccnc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nc1cc(Oc2ccc(Nc3nccnc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
+          <t>Cn1cnc(-c2cc3nccc(Oc4ccc(NC(=S)NC(=O)Cc5ccccc5)cc4F)c3s2)c1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>452.4</v>
+        <v>517.61</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>115.05</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBCA0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL552195</t>
+          <t>CHEMBL461831</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1S(=O)(=O)c1c[nH]c2ncccc12</t>
+          <t>COc1cc2nccc(Oc3ccc(-c4cnc(Nc5ccc(F)cc5)n(C)c4=O)cc3F)c2cc1OC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1S(=O)(=O)c1c[nH]c2ncccc12</t>
+          <t>COc1cc2nccc(Oc3ccc(-c4cnc(Nc5ccc(F)cc5)n(C)c4=O)cc3F)c2cc1OC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>303.3</v>
+        <v>516.5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>105.96</v>
+        <v>87.5</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBC30&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL162</t>
+          <t>CHEMBL550158</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CC(C)(C)OC(=O)N1CCN(c2cnc3ccn(S(=O)(=O)c4c(Cl)nc5sccn45)c3c2)CC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CC(C)(C)OC(=O)N1CCN(c2cnc3ccn(S(=O)(=O)c4c(Cl)nc5sccn45)c3c2)CC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>466.54</v>
+        <v>523.04</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>69.45</v>
+        <v>102.04</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBBC0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL251796</t>
+          <t>CHEMBL561256</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cc1ccc(Sc2cnc(Nc3cccc(Br)n3)s2)cc1C(=O)N1CCN(C(=O)[C@@H](C)N)CC1</t>
+          <t>c1ccc(Cn2ccc3ncccc32)cc1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cc1ccc(Sc2cnc(Nc3cccc(Br)n3)s2)cc1C(=O)N1CCN(C(=O)[C@@H](C)N)CC1</t>
+          <t>c1ccc(Cn2ccc3ncccc32)cc1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>561.53</v>
+        <v>208.26</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>104.45</v>
+        <v>17.82</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBB50&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL540744</t>
+          <t>CHEMBL261641</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1CCn1ccc2ncccc21</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(S(=O)(=O)N(C)c4cccc(Cl)c4)cc32)c(C)c1C(=O)N1CCN(C)CC1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])c1ccccc1CCn1ccc2ncccc21</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(S(=O)(=O)N(C)c4cccc(Cl)c4)cc32)c(C)c1C(=O)N1CCN(C)CC1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>267.29</v>
+        <v>568.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>60.96</v>
+        <v>105.82</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBA70&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL1089116</t>
+          <t>CHEMBL598911</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2ccc(NC(=O)Nc3ccccc3)cc2)n1</t>
+          <t>CC(Oc1ccc2ncc(/C=C/C(N)=O)cc2c1)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2ccc(NC(=O)Nc3ccccc3)cc2)n1</t>
+          <t>CC(Oc1ccc2ncc(/C=C/C(N)=O)cc2c1)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>422.49</v>
+        <v>405.26</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1267,13 +1267,13 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>87.63</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFBA00&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL493313</t>
+          <t>CHEMBL518516</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N#Cc1ccc2[nH]c(-c3cncnc3)c(-c3ccc(F)cc3)c2n1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc([N+](=O)[O-])c4)c3n2)CC1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N#Cc1ccc2[nH]c(-c3cncnc3)c(-c3ccc(F)cc3)c2n1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc([N+](=O)[O-])c4)c3n2)CC1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>315.31</v>
+        <v>446.43</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>78.25</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB990&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL478611</t>
+          <t>CHEMBL566010</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Oc1ccc(C[C@@]2(O)COc3c(ccc(O)c3O)[C@H]2O)cc1O</t>
+          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCCC4)sc23)c(F)c1)Nc1ccccc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Oc1ccc(C[C@@]2(O)COc3c(ccc(O)c3O)[C@H]2O)cc1O</t>
+          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3cc(C(=O)N4CCCC4)sc23)c(F)c1)Nc1ccccc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>320.3</v>
+        <v>518.5700000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>130.61</v>
+        <v>100.63</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB920&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL456720</t>
+          <t>CHEMBL493519</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(-c4ccccc4)c3c2)CC1</t>
+          <t>N#Cc1ccc2[nH]c(-c3ccncc3)c(-c3cccc(Cl)c3)c2n1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(-c4ccccc4)c3c2)CC1</t>
+          <t>N#Cc1ccc2[nH]c(-c3ccncc3)c(-c3cccc(Cl)c3)c2n1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>371.41</v>
+        <v>330.78</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -1474,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>19.37</v>
+        <v>65.36</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB8B0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL191003</t>
+          <t>CHEMBL500921</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nc1nc(Nc2ccc(S(N)(=O)=O)cc2)nn1C(=O)c1c(F)cccc1F</t>
+          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)Nc1ccc(F)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nc1nc(Nc2ccc(S(N)(=O)=O)cc2)nn1C(=O)c1c(F)cccc1F</t>
+          <t>O=C(CC(=O)Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)Nc1ccc(F)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>394.36</v>
+        <v>422.39</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>145.99</v>
+        <v>96.11</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB840&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL572878</t>
+          <t>CHEMBL1096519</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(Sc3ccc(NC(=O)C4CC4)cc3)n2)[nH]n1</t>
+          <t>Nc1cc(Oc2ccc(Nc3nccnc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(Sc3ccc(NC(=O)C4CC4)cc3)n2)[nH]n1</t>
+          <t>Nc1cc(Oc2ccc(Nc3nccnc3C(=O)Nc3ccc(F)cc3F)cc2F)ccn1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>464.6</v>
+        <v>452.4</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>102.07</v>
+        <v>115.05</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB7D0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL473332</t>
+          <t>CHEMBL552195</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O=c1cc2oc3cc(O)c(O)cc3c(-c3cccc(Cl)c3Cl)c-2cc1O</t>
+          <t>O=[N+]([O-])c1ccccc1S(=O)(=O)c1c[nH]c2ncccc12</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O=c1cc2oc3cc(O)c(O)cc3c(-c3cccc(Cl)c3Cl)c-2cc1O</t>
+          <t>O=[N+]([O-])c1ccccc1S(=O)(=O)c1c[nH]c2ncccc12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>389.19</v>
+        <v>303.3</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>90.90000000000001</v>
+        <v>105.96</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB760&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL477560</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Oc1ccc(CC2=Cc3ccc(O)c(O)c3OC2)cc1O</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oc1ccc(CC2=Cc3ccc(O)c(O)c3OC2)cc1O</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>286.28</v>
+        <v>466.54</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>90.15000000000001</v>
+        <v>69.45</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB6F0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL404881</t>
+          <t>CHEMBL251796</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,26 +1780,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2cc1OC</t>
+          <t>Cc1ccc(Sc2cnc(Nc3cccc(Br)n3)s2)cc1C(=O)N1CCN(C(=O)[C@@H](C)N)CC1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COc1cc2nccc(Oc3ccc(NC(=S)NC(=O)Cc4ccccc4)cc3F)c2cc1OC</t>
+          <t>Cc1ccc(Sc2cnc(Nc3cccc(Br)n3)s2)cc1C(=O)N1CCN(C(=O)[C@@H](C)N)CC1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>491.54</v>
+        <v>561.53</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -1808,16 +1808,16 @@
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>81.70999999999999</v>
+        <v>104.45</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB680&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL523413</t>
+          <t>CHEMBL460772</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,44 +1848,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2ccc3nnc(Cc4ccc(O)cc4)n3n2)sn1</t>
+          <t>COc1cc2nccc(Oc3ccc(-c4ccc(Cc5ccccc5)nn4)cc3F)c2cc1OC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2ccc3nnc(Cc4ccc(O)cc4)n3n2)sn1</t>
+          <t>COc1cc2nccc(Oc3ccc(-c4ccc(Cc5ccccc5)nn4)cc3F)c2cc1OC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>323.38</v>
+        <v>467.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76.2</v>
+        <v>66.36</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB610&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL454356</t>
+          <t>CHEMBL540744</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,44 +1916,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1c[nH]cc(-c2ccc(F)cc2)c1=O</t>
+          <t>O=[N+]([O-])c1ccccc1CCn1ccc2ncccc21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(Oc2ccnc3[nH]ccc23)c(F)c1)c1c[nH]cc(-c2ccc(F)cc2)c1=O</t>
+          <t>O=[N+]([O-])c1ccccc1CCn1ccc2ncccc21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>458.42</v>
+        <v>267.29</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>3</v>
       </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>99.87</v>
+        <v>60.96</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB5A0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL568138</t>
+          <t>CHEMBL550857</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,44 +1984,44 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COc1cnc2c(NCc3nnc4ccc(-c5cc(F)cc(F)c5)nn34)ccnc2c1</t>
+          <t>CN1CCN(C(=O)c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COc1cnc2c(NCc3nnc4ccc(-c5cc(F)cc(F)c5)nn34)ccnc2c1</t>
+          <t>CN1CCN(C(=O)c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>419.4</v>
+        <v>429.46</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>90.12</v>
+        <v>118.65</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB530&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL498769</t>
+          <t>CHEMBL1089116</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,44 +2052,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Oc1ccc(Cc2nnc3ncc(-c4ccccc4)nn23)cc1</t>
+          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2ccc(NC(=O)Nc3ccccc3)cc2)n1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Oc1ccc(Cc2nnc3ncc(-c4ccccc4)nn23)cc1</t>
+          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2ccc(NC(=O)Nc3ccccc3)cc2)n1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>303.33</v>
+        <v>422.49</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>76.2</v>
+        <v>87.63</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB4C0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL558306</t>
+          <t>CHEMBL493313</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,32 +2120,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nc1cnc2ccn(S(=O)(=O)c3c(Cl)nc4sccn34)c2c1</t>
+          <t>N#Cc1ccc2[nH]c(-c3cncnc3)c(-c3ccc(F)cc3)c2n1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nc1cnc2ccn(S(=O)(=O)c3c(Cl)nc4sccn34)c2c1</t>
+          <t>N#Cc1ccc2[nH]c(-c3cncnc3)c(-c3ccc(F)cc3)c2n1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>353.82</v>
+        <v>315.31</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>95.28</v>
+        <v>78.25</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB450&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL502232</t>
+          <t>CHEMBL478611</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,44 +2188,44 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(C(=O)NCc4cccnc4)c23)c(F)c1</t>
+          <t>Oc1ccc(C[C@@]2(O)COc3c(ccc(O)c3O)[C@H]2O)cc1O</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(C(=O)NCc4cccnc4)c23)c(F)c1</t>
+          <t>Oc1ccc(C[C@@]2(O)COc3c(ccc(O)c3O)[C@H]2O)cc1O</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>556.53</v>
+        <v>320.3</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>138.1</v>
+        <v>130.61</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB3E0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL556627</t>
+          <t>CHEMBL477197</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,44 +2256,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)N1CCN(c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
+          <t>Oc1cc2c(cc1O)[C@@H]1c3ccc(O)c(O)c3OC[C@]1(O)C2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CC(C)(C)OC(=O)N1CCN(c2cnc3ccn(S(=O)(=O)c4ccccc4[N+](=O)[O-])c3c2)CC1</t>
+          <t>Oc1cc2c(cc1O)[C@@H]1c3ccc(O)c(O)c3OC[C@]1(O)C2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>487.54</v>
+        <v>302.28</v>
       </c>
       <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
       <c r="K27" t="n">
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>127.88</v>
+        <v>110.38</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB370&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL254280</t>
+          <t>CHEMBL518511</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,36 +2324,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
+          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)CC(=O)Nc4ccc(F)cc4)cc3F)c12</t>
+          <t>COc1cc2nccc(Oc3ccc(NC(=O)Cc4ccccc4)nc3)c2cc1OC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>538.5599999999999</v>
+        <v>415.45</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
         <v>7</v>
       </c>
-      <c r="J28" t="n">
-        <v>11</v>
-      </c>
       <c r="K28" t="n">
         <v>4</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>110.09</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB300&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL515659</t>
+          <t>CHEMBL429743</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc5nonc45)c3n2)CC1</t>
+          <t>COc1cc2nccc(Oc3ccc4c(C(=O)Nc5ccc(Cl)cc5)cccc4c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(NCc4cccc5nonc45)c3n2)CC1</t>
+          <t>COc1cc2nccc(Oc3ccc4c(C(=O)Nc5ccc(Cl)cc5)cccc4c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>443.43</v>
+        <v>484.94</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>83.20999999999999</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB290&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL585205</t>
+          <t>CHEMBL456720</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,44 +2460,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(=O)NC5CCCCC5)cc4F)c3s2)c1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(-c4ccccc4)c3c2)CC1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CCn1cnc(-c2cc3nccc(Oc4ccc(NC(=O)CC(=O)NC5CCCCC5)cc4F)c3s2)c1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(-c4ccccc4)c3c2)CC1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>521.62</v>
+        <v>371.41</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8</v>
-      </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>98.14</v>
+        <v>19.37</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB220&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL461139</t>
+          <t>CHEMBL191003</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,44 +2528,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
+          <t>Nc1nc(Nc2ccc(S(N)(=O)=O)cc2)nn1C(=O)c1c(F)cccc1F</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
+          <t>Nc1nc(Nc2ccc(S(N)(=O)=O)cc2)nn1C(=O)c1c(F)cccc1F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>413.48</v>
+        <v>394.36</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>86.90000000000001</v>
+        <v>145.99</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB1B0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL1171941</t>
+          <t>CHEMBL572878</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,44 +2596,44 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCC(n2cc(-c3cnc(N)c(-c4nc5ccccc5o4)c3)cn2)CC1</t>
+          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(Sc3ccc(NC(=O)C4CC4)cc3)n2)[nH]n1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCC(n2cc(-c3cnc(N)c(-c4nc5ccccc5o4)c3)cn2)CC1</t>
+          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(Sc3ccc(NC(=O)C4CC4)cc3)n2)[nH]n1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>402.46</v>
+        <v>464.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
+        <v>7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
         <v>3</v>
       </c>
-      <c r="K32" t="n">
-        <v>5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4</v>
-      </c>
       <c r="M32" t="n">
-        <v>103.07</v>
+        <v>102.07</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB140&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL3321901</t>
+          <t>CHEMBL473332</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,81 +2664,55 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
+          <t>O=c1cc2oc3cc(O)c(O)cc3c(-c3cccc(Cl)c3Cl)c-2cc1O</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2nc3ccc(Nc4ncnc5ccccc45)cc3[nH]2)cc1</t>
+          <t>O=c1cc2oc3cc(O)c(O)cc3c(-c3cccc(Cl)c3Cl)c-2cc1O</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>355.38</v>
+        <v>389.19</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>50</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>CHEMBL3368963</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant c-Met pre-incubated for 5 mins before ATP/substrate peptide cocktail addition measured after 30 mins by colorimetric ELISA assay</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>90.90000000000001</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFB060&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2750,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL2442139</t>
+          <t>CHEMBL477560</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2758,81 +2732,55 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CC(Sc1cc(-c2ccc(OCC(=O)N3CCOCC3)cc2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
+          <t>Oc1ccc(CC2=Cc3ccc(O)c(O)c3OC2)cc1O</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CC(Sc1cc(-c2ccc(OCC(=O)N3CCOCC3)cc2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
+          <t>Oc1ccc(CC2=Cc3ccc(O)c(O)c3OC2)cc1O</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>536.46</v>
+        <v>286.28</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>77.68000000000001</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>CHEMBL2447158</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using poly (Glu, Tyr) 4:1 as substrate after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>90.15000000000001</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAFF0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2844,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL3678512</t>
+          <t>CHEMBL477768</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2852,81 +2800,55 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[C-]#[N+]C1=C(C(F)F)Nc2onc(C)c2C1c1cc2c(C)n[nH]c2cc1F</t>
+          <t>O=C1c2ccc(O)c(O)c2OC[C@]1(O)Cc1ccc(O)c(O)c1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[C-]#[N+]C1=C(C(F)F)Nc2onc(C)c2C1c1cc2c(C)n[nH]c2cc1F</t>
+          <t>O=C1c2ccc(O)c(O)c2OC[C@]1(O)Cc1ccc(O)c(O)c1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>359.31</v>
+        <v>318.28</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>100</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>CHEMBL3706315</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Tyrosine Kinase Activity Assay: Recombinant human c-Met protein (Invitrogen, Carlsbad, Calif., USA) is used. As substrate for the kinase reaction the peptide KKKSPGEYVNIEFG (JPT, Germany) is used. For the assay, 1 uL of a 51-fold concentrated solution of the test compound in DMSO is pipetted into a white 384-well microtiter plate (Greiner Bio-One, Frickenhausen, Germany). 25 uL of a solution of c-Met (final concentration 30 nM) and pyruvate kinase/lactate dehydrogenase (Roche Diagnostics, Mannheim, Germany; final concentration 8 mg/L) in assay buffer [3-(N-morpholino)propanesulfonic acid (MOPS), 50 mM, pH 7; MgCl2, 10 mM; bovine serum albumin (BSA), 0.01%; Triton X 100, 0.01%; DTT, 2 mM] are added, and the mixture is incubated for 5 min at room temperature. Then, the kinase reaction is started by the addition of 25 uL of a solution of adenosine triphosphate (ATP, final concentration 30 uM), substrate (final concentration 100 uM), nicotinamide adenine dinucleotide.</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>127.45</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAF80&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2938,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL50</t>
+          <t>CHEMBL600604</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2946,81 +2868,55 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O=c1c(O)c(-c2ccc(O)c(O)c2)oc2cc(O)cc(O)c12</t>
+          <t>COc1cc2nccc(Oc3ccc(NC(CC(=O)Nc4ccccc4)C(F)(F)F)cc3F)c2cc1OC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O=c1c(O)c(-c2ccc(O)c(O)c2)oc2cc(O)cc(O)c12</t>
+          <t>COc1cc2nccc(Oc3ccc(NC(CC(=O)Nc4ccccc4)C(F)(F)F)cc3F)c2cc1OC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>302.24</v>
+        <v>529.49</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>131.36</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>580</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>CHEMBL3108321</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>81.70999999999999</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAF10&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3032,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL3417459</t>
+          <t>CHEMBL460465</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3040,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CN(C)CCCCOC(=O)Nc1cccc(Cn2nc(Nc3ccccc3)ccc2=O)c1</t>
+          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(C)n(-c5ccccc5)c4=O)cc3F)ccnc2c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CN(C)CCCCOC(=O)Nc1cccc(Cn2nc(Nc3ccccc3)ccc2=O)c1</t>
+          <t>COc1ccc2c(Oc3ccc(NC(=O)c4c(C)n(C)n(-c5ccccc5)c4=O)cc3F)ccnc2c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3055,66 +2951,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>435.53</v>
+        <v>498.51</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
         <v>6</v>
       </c>
-      <c r="J37" t="n">
-        <v>10</v>
-      </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>88.48999999999999</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>360</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>CHEMBL3420280</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant c-Met (unknown origin) using poly (Glu,Tyr)4:1 substrate incubated for 60 mins by ELISA method</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>87.38</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAE30&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3126,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL3104851</t>
+          <t>CHEMBL462622</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3134,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cc1c(O)c(O)c2c(c1C=O)[C@@H]1O[C@H](O2)c2c(C)c(O)c(O)c(O)c2C1=O</t>
+          <t>C#Cc1c(Oc2ccc(NC(=O)c3cccn(-c4ccc(F)cc4)c3=O)cc2F)ccnc1N</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cc1c(O)c(O)c2c(c1C=O)[C@@H]1O[C@H](O2)c2c(C)c(O)c(O)c(O)c2C1=O</t>
+          <t>C#Cc1c(Oc2ccc(NC(=O)c3cccn(-c4ccc(F)cc4)c3=O)cc2F)ccnc1N</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3149,66 +3019,40 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>374.3</v>
+        <v>458.42</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>153.75</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>580</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>CHEMBL3108321</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.23999999999999</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFADC0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3220,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL1822789</t>
+          <t>CHEMBL567908</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3228,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2[nH]c(-c3c(Cl)cc(OCCO)cc3Cl)nc2-c2cccc(OCc3ccccn3)c2)n1</t>
+          <t>COc1ccc2c(OCc3nnc4ccc(-c5cc(C)ns5)nn34)ccnc2c1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2[nH]c(-c3c(Cl)cc(OCCO)cc3Cl)nc2-c2cccc(OCc3ccccn3)c2)n1</t>
+          <t>COc1ccc2c(OCc3nnc4ccc(-c5cc(C)ns5)nn34)ccnc2c1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3243,20 +3087,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>607.5</v>
+        <v>404.46</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
@@ -3265,44 +3109,18 @@
         <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>22</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>87.31999999999999</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAD50&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3314,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL3394452</t>
+          <t>CHEMBL568138</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3322,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nc1noc2cccc(-c3ccc(NC(=O)C4(C(=O)Nc5ccc(C(F)(F)F)cc5)CC4)cc3)c12</t>
+          <t>COc1cnc2c(NCc3nnc4ccc(-c5cc(F)cc(F)c5)nn34)ccnc2c1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nc1noc2cccc(-c3ccc(NC(=O)C4(C(=O)Nc5ccc(C(F)(F)F)cc5)CC4)cc3)c12</t>
+          <t>COc1cnc2c(NCc3nnc4ccc(-c5cc(F)cc(F)c5)nn34)ccnc2c1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3337,17 +3155,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>480.45</v>
+        <v>419.4</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
         <v>5</v>
@@ -3356,47 +3174,21 @@
         <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>110.25</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>566</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CHEMBL3396121</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Inhibition of purified recombinant c-MET (unknown origin) using poly (Glu, Tyr) substrate after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>90.12</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFACE0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3408,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL4214671</t>
+          <t>CHEMBL499886</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3416,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cc(Oc2ccc(NC(=O)c3cc4cccnc4n(-c4ccc(F)cc4)c3=O)cc2)ccn1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(CO)c23)c(F)c1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cc(Oc2ccc(NC(=O)c3cc4cccnc4n(-c4ccc(F)cc4)c3=O)cc2)ccn1</t>
+          <t>O=C(Cc1ccc(F)cc1)NC(=O)Nc1ccc(Oc2ccnc3[nH]cc(CO)c23)c(F)c1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3431,66 +3223,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>523.52</v>
+        <v>452.42</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
         <v>6</v>
       </c>
-      <c r="J41" t="n">
-        <v>7</v>
-      </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>115.21</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL4185092</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of c-MET (unknown origin) using poly (Glu, Tyr) 4:1 as substrate after 30 mins in presence of ATP by HTRF assay</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>116.34</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAC70&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3502,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL1822793</t>
+          <t>CHEMBL497117</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3510,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1c(Cl)nc2sccn12)[N+]1=C2C=C(N3CCNCC3)C=NC2C=C1</t>
+          <t>Oc1ccc(Cc2nnc3ccc(-c4ccsc4)nn23)cc1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>O=S(=O)(c1c(Cl)nc2sccn12)[N+]1=C2C=C(N3CCNCC3)C=NC2C=C1</t>
+          <t>Oc1ccc(Cc2nnc3ccc(-c4ccsc4)nn23)cc1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3525,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>423.93</v>
+        <v>308.37</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>24</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>63.31</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAC00&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3596,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL1822561</t>
+          <t>CHEMBL498769</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3604,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CC(C(=O)N/N=C1\C(=O)Nc2ccc(C(=O)N3CCCC3CN3CCCC3)c(Cl)c21)c1ccc(F)cc1</t>
+          <t>Oc1ccc(Cc2nnc3ncc(-c4ccccc4)nn23)cc1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CC(C(=O)N/N=C1\C(=O)Nc2ccc(C(=O)N3CCCC3CN3CCCC3)c(Cl)c21)c1ccc(F)cc1</t>
+          <t>Oc1ccc(Cc2nnc3ncc(-c4ccccc4)nn23)cc1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3619,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>526.01</v>
+        <v>303.33</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>94.11</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>430</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL1826790</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of human c-MET</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>76.2</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAB20&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3690,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL3704017</t>
+          <t>CHEMBL455655</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3698,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C/C(=N\OCCO)c1ccc2nnc(Sc3ccc4ncc(N5CCN(C)CC5)cc4c3)n2c1</t>
+          <t>CCn1ccnc1-c1cc2nccc(Oc3ccc(NC(=O)N4CCN(c5ccccc5)C4=O)cc3F)c2s1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C/C(=N\OCCO)c1ccc2nnc(Sc3ccc4ncc(N5CCN(C)CC5)cc4c3)n2c1</t>
+          <t>CCn1ccnc1-c1cc2nccc(Oc3ccc(NC(=O)N4CCN(c5ccccc5)C4=O)cc3F)c2s1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3713,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>477.59</v>
+        <v>542.6</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>91.38</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>10</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL3706358</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>LanthaScreen Assay: The kinase assay is based on the LanthaScreen technology. LanthaScreen is the detection of Time-Resolved Fluorescence Resonance Energy Transfer (TR-FRET) using lanthanide chelates to measure interactions between various binding partners. In a TR-FRET kinase assay, a long-lifetime lanthanide donor species is conjugated to an antibody that specifically binds to a phosphorylated product of a kinase reaction that is labeled with a suitable acceptor fluorophore. This antibody-mediated interaction brings the lanthanide donor and the acceptor into proximity such that resonance energy transfer can take place, resulting in a detectable increase in the FRET signal.The kinase reactions were performed in 384 well microtiter plates in a total reaction volume of 10.05 μL. The assay plates were prepared with 0.05 μL per well of test compound in the appropriate test concentration, as described under preparation of compound dilutions.</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>92.59</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAAB0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3784,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL2333163</t>
+          <t>CHEMBL438696</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3792,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O=C(NCCc1ccc(O)c(Br)c1)/C(Cc1cc(Br)c(O)c(Oc2ccc(CCNC(=O)/C(Cc3cc(Br)c(O)c(-c4cc(C/C(=N\O)C(=O)NCCc5ccc(O)c(Br)c5)cc(Br)c4O)c3)=N/O)cc2Br)c1)=N/O</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O=C(NCCc1ccc(O)c(Br)c1)/C(Cc1cc(Br)c(O)c(Oc2ccc(CCNC(=O)/C(Cc3cc(Br)c(O)c(-c4cc(C/C(=N\O)C(=O)NCCc5ccc(O)c(Br)c5)cc(Br)c4O)c3)=N/O)cc2Br)c1)=N/O</t>
+          <t>Cc1c(OCCCN(C)C)cn2ncnc(Oc3ccc(NC(=O)NC(=O)Cc4ccc(F)cc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3807,66 +3495,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1412.37</v>
+        <v>538.5599999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>295.45</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>800</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL2345559</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of MET (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>110.09</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFAA40&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3878,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL3648324</t>
+          <t>CHEMBL461139</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3886,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC1=NC(C)=C(C#N)C(c2ccc3[nH]nc(OCCN4CCCCC4)c3c2)C1C#N</t>
+          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC1=NC(C)=C(C#N)C(c2ccc3[nH]nc(OCCN4CCCCC4)c3c2)C1C#N</t>
+          <t>O=c1[nH]cnc2[nH]c(-c3ccnc(/C=C/c4ccc(CN5CCOCC5)cc4)c3)cc12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3901,14 +3563,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>402.5</v>
+        <v>413.48</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
@@ -3917,50 +3579,24 @@
         <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>15</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL3705062</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Time-Resolved Fluorescence Assay: Homogeneous time-resolved fluorescence assay using c-Met receptor tyrosine kinase.</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFA9D0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3972,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL3263970</t>
+          <t>CHEMBL409867</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3980,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(c2ccccc2)CN(C)CC3)ncc1Cl</t>
+          <t>COc1cc2nccc(Oc3ccc4c(c3)OCCN4C(=O)Nc3ccc(Cl)cc3)c2cc1C(N)=O</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)C(c2ccccc2)CN(C)CC3)ncc1Cl</t>
+          <t>COc1cc2nccc(Oc3ccc4c(c3)OCCN4C(=O)Nc3ccc(Cl)cc3)c2cc1C(N)=O</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3995,20 +3631,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>513.05</v>
+        <v>504.93</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>5</v>
@@ -4017,44 +3653,18 @@
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>82.18000000000001</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>25.33</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL3267805</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition of purified recombinant c-MET (unknown origin) after 60 mins by ELISA</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>116.01</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFA8F0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -4066,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL560733</t>
+          <t>CHEMBL251980</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4074,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
+          <t>Cc1c(OCCN2CCN(C)CC2)cn2ncnc(Oc3ccc(NC(=O)c4cccnc4)cc3F)c12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4089,66 +3699,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>441.5</v>
+        <v>505.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>132.77</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>11</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL3399483</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>97.12</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFA880&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -4160,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL4786582</t>
+          <t>CHEMBL511592</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4168,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Clc1cccc(Nc2nn3c(Cn4ccc5ncccc54)nnc3s2)c1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(-c4ccc5[nH]c(=O)[nH]c5c4)c3n2)CC1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Clc1cccc(Nc2nn3c(Cn4ccc5ncccc54)nnc3s2)c1</t>
+          <t>CN1CCN(c2cnc3cc(C(F)(F)F)cc(-c4ccc5[nH]c(=O)[nH]c5c4)c3n2)CC1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4183,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>381.85</v>
+        <v>428.42</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>72.93000000000001</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>40</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL4715301</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin) using poly Glu-Tyr as substrate preincubated for 10 mins followed by ATP addition by phosphoenolpyruvate/pyruvate kinase/lactate dehydrogenase coupled radiometric assay</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>80.91</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CCA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFA810&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4254,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL2431824</t>
+          <t>CHEMBL1171941</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4262,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2ccc3nnc([C@@H](C)c4ccc5ncccc5c4)n3n2)cc1C</t>
+          <t>CC(=O)N1CCC(n2cc(-c3cnc(N)c(-c4nc5ccccc5o4)c3)cn2)CC1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2ccc3nnc([C@@H](C)c4ccc5ncccc5c4)n3n2)cc1C</t>
+          <t>CC(=O)N1CCC(n2cc(-c3cnc(N)c(-c4nc5ccccc5o4)c3)cn2)CC1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4277,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>395.47</v>
+        <v>402.46</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
         <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL2434668</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of N-terminal His-6-tagged human recombinant c-Met (974 to 1390) using Ac-ARDMYDKEYYSVHNK as substrate by spectrophotometric assay</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>103.07</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFA730&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4348,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL2103882</t>
+          <t>CHEMBL450209</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4356,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)[C@@H](c2cn3c4c(cccc24)CCC3)[C@@H]1c1c[nH]c2ccccc12</t>
+          <t>COc1cc2c(Oc3ccc(-c4cnc(Cc5ccccc5)n(C)c4=O)cc3F)ccnc2cc1OCCCN1CCCC1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)[C@@H](c2cn3c4c(cccc24)CCC3)[C@@H]1c1c[nH]c2ccccc12</t>
+          <t>COc1cc2c(Oc3ccc(-c4cnc(Cc5ccccc5)n(C)c4=O)cc3F)ccnc2cc1OCCCN1CCCC1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4371,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>369.42</v>
+        <v>594.6900000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K51" t="n">
         <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>355</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL3767620</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Inhibition of c-Met (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>78.70999999999999</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D6E3CC9F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002737FDFA6C0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
